--- a/docs/assets/disciplinas/8800013.xlsx
+++ b/docs/assets/disciplinas/8800013.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="36">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -67,7 +67,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Levar os alunos a vivenciarem de forma mais aprofundada problemas reais da indústria para, em equipes, apresentarem as possíveis soluções, de forma que, com isso, desenvolvam habilidades transversais fundamentais para sua vida profissional, tais como trabalho em equipe, gerenciamento de projetos, pro atividade, ao mesmo tempo em que consolidam o conhecimento adquirido durante o curso.</t>
+    <t>198273 - Domingos Savio Giordani</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -79,13 +79,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>198273 - Domingos Savio Giordani</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Formação e trabalho em equipes, Comunicação, Inovação Sistemática, Legislação, Gerenciamento de Projetos. Identificação de Problemas, Formulação do Projeto, Especificação de Problemas, Análise do Conhecimento disponível, Avaliação e Tomada de Decisão, Cronograma, Elaboração de relatórios, Apresentação de Projetos</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -97,9 +94,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>Formação e trabalho em equipes e Comunicação – o desenvolvimento das habilidades essenciais para o trabalho em equipes; Inovação Sistemática – desenvolvimento de soluções inovadoras, sistematização e características; Legislação - noções da legislação aplicada à ação empresarial; Gerenciamento de Projetos e Cronograma – Metodologias e esquematizações necessárias com os elementos gerenciais; Identificação de Problemas – sistematização de ações para a localização de causas; Formulação do Projeto – apresentação dos aspectos gerenciais necessários ao desenvolvimento do projeto, Plano de gestão, Estrutura Analítica do Projeto (EAP) etc; Especificação de Problemas – sistematização dos problemas dentro das áreas de conhecimento; Análise do Conhecimento disponível, Avaliação e Tomada de Decisão; Elaboração de relatórios – formatação dentro das normas ABNT; Apresentação de Projetos.</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -112,25 +106,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>Apresentações intermediárias e finais.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>Serão feitas duas avaliações por uma banca de professores que assistirão às apresentações, as notas serão as médias das notas dadas pelos professores.</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>Reapresentação do último seminário, cuja nota constituirá a nota final da disciplina.</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>Gestão de Negócios: Visões e dimensões empresariais da o Organização. Autores: Cruz Jr, J.B., Rocha, J.A.O. e Tachizawa, T.Editora: ATLASGestão Empresarial - de Taylor aos nossos diasAutores: Pereira, M. I. , Autor: Ferreira, A. A. e Reis, A.C. F Editora: THOMSON PIONEIRABaron e Shane: Empreendedorismo: uma visão do processo (EVP), Ed. Thomson, 2006Textos fornecidos pelo professor da disciplinaArtigos extraídos de revistas especializadas na área de gestão e produção.</t>
   </si>
 </sst>
 </file>
@@ -486,7 +477,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -617,34 +608,37 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -658,64 +652,53 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="2" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>30</v>
+      <c r="B18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="C21" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/disciplinas/8800013.xlsx
+++ b/docs/assets/disciplinas/8800013.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="39">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -67,22 +67,25 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Levar os alunos a vivenciarem de forma mais aprofundada problemas reais da indústria para, em equipes, apresentarem as possíveis soluções, de forma que, com isso, desenvolvam habilidades transversais fundamentais para sua vida profissional, tais como trabalho em equipe, gerenciamento de projetos, pro atividade, ao mesmo tempo em que consolidam o conhecimento adquirido durante o curso.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>To lead students to experience in-depth real problems of the industry in order to present the possible solutions in teams, so that they develop transversal skills that are fundamental to their professional life, such as teamwork, project management, pro activity, at the same time in which they consolidate the knowledge acquired during the course.</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>198273 - Domingos Savio Giordani</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>To lead students to experience in-depth real problems of the industry in order to present the possible solutions in teams, so that they develop transversal skills that are fundamental to their professional life, such as teamwork, project management, pro activity, at the same time in which they consolidate the knowledge acquired during the course.</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>Formação e trabalho em equipes, Comunicação, Inovação Sistemática, Legislação, Gerenciamento de Projetos. Identificação de Problemas, Formulação do Projeto, Especificação de Problemas, Análise do Conhecimento disponível, Avaliação e Tomada de Decisão, Cronograma, Elaboração de relatórios, Apresentação de Projetos</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -94,6 +97,9 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>Formação e trabalho em equipes e Comunicação – o desenvolvimento das habilidades essenciais para o trabalho em equipes; Inovação Sistemática – desenvolvimento de soluções inovadoras, sistematização e características; Legislação - noções da legislação aplicada à ação empresarial; Gerenciamento de Projetos e Cronograma – Metodologias e esquematizações necessárias com os elementos gerenciais; Identificação de Problemas – sistematização de ações para a localização de causas; Formulação do Projeto – apresentação dos aspectos gerenciais necessários ao desenvolvimento do projeto, Plano de gestão, Estrutura Analítica do Projeto (EAP) etc; Especificação de Problemas – sistematização dos problemas dentro das áreas de conhecimento; Análise do Conhecimento disponível, Avaliação e Tomada de Decisão; Elaboração de relatórios – formatação dentro das normas ABNT; Apresentação de Projetos.</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -106,22 +112,25 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Apresentações intermediárias e finais.</t>
+  </si>
+  <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Apresentações intermediárias e finais.</t>
+    <t>Serão feitas duas avaliações por uma banca de professores que assistirão às apresentações, as notas serão as médias das notas dadas pelos professores.</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>Serão feitas duas avaliações por uma banca de professores que assistirão às apresentações, as notas serão as médias das notas dadas pelos professores.</t>
+    <t>Reapresentação do último seminário, cuja nota constituirá a nota final da disciplina.</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>Reapresentação do último seminário, cuja nota constituirá a nota final da disciplina.</t>
+    <t>Gestão de Negócios: Visões e dimensões empresariais da o Organização. Autores: Cruz Jr, J.B., Rocha, J.A.O. e Tachizawa, T.Editora: ATLASGestão Empresarial - de Taylor aos nossos diasAutores: Pereira, M. I. , Autor: Ferreira, A. A. e Reis, A.C. F Editora: THOMSON PIONEIRABaron e Shane: Empreendedorismo: uma visão do processo (EVP), Ed. Thomson, 2006Textos fornecidos pelo professor da disciplinaArtigos extraídos de revistas especializadas na área de gestão e produção.</t>
   </si>
 </sst>
 </file>
@@ -477,13 +486,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -608,37 +617,34 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -652,53 +658,64 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="B17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
+      <c r="A22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
